--- a/ALU_Verf_Plan.xlsx
+++ b/ALU_Verf_Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation Project\Siemens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation Project\Siemens\ALU_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A86404-397D-4A73-81B8-760D99409F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE473088-455A-4A6B-9F0C-B650B6EA8DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Label</t>
   </si>
@@ -167,6 +168,33 @@
   </si>
   <si>
     <t>Covered the SEL, INC, DEC, AND, OR, XOR, SHIFT_L, SHIFT_R, ROTATE_L and ROTATE_R values for the opcode.</t>
+  </si>
+  <si>
+    <t>ALU_8</t>
+  </si>
+  <si>
+    <t>ALU_9</t>
+  </si>
+  <si>
+    <t>When Valid_in = 1, input is valid, so output values adjust and valid_out = 1.</t>
+  </si>
+  <si>
+    <t>Covering invalid inputs and outputs.</t>
+  </si>
+  <si>
+    <t>Covering valid inputs and outputs.</t>
+  </si>
+  <si>
+    <t>When Valid_in = 0, input is not valid, so output values don’t change and valid_out = 0.</t>
+  </si>
+  <si>
+    <t>ALU_10</t>
+  </si>
+  <si>
+    <t>Whrn OPCODE = 14 or 15. output stays the same and valid_out = 0.</t>
+  </si>
+  <si>
+    <t>Covering ctl values that aren't of the opcodes.</t>
   </si>
 </sst>
 </file>
@@ -556,9 +584,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E965"/>
+  <dimension ref="A1:E968"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -674,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -708,128 +736,158 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
+    <row r="9" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>5</v>
+      <c r="D13" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+    <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -7467,6 +7525,27 @@
       <c r="D965" s="6"/>
       <c r="E965" s="6"/>
     </row>
+    <row r="966" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A966" s="9"/>
+      <c r="B966" s="6"/>
+      <c r="C966" s="6"/>
+      <c r="D966" s="6"/>
+      <c r="E966" s="6"/>
+    </row>
+    <row r="967" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A967" s="9"/>
+      <c r="B967" s="6"/>
+      <c r="C967" s="6"/>
+      <c r="D967" s="6"/>
+      <c r="E967" s="6"/>
+    </row>
+    <row r="968" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A968" s="9"/>
+      <c r="B968" s="6"/>
+      <c r="C968" s="6"/>
+      <c r="D968" s="6"/>
+      <c r="E968" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ALU_Verf_Plan.xlsx
+++ b/ALU_Verf_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation Project\Siemens\ALU_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE473088-455A-4A6B-9F0C-B650B6EA8DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E380B2-52A1-41DC-8028-8AB5CFAB121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -191,10 +190,10 @@
     <t>ALU_10</t>
   </si>
   <si>
-    <t>Whrn OPCODE = 14 or 15. output stays the same and valid_out = 0.</t>
+    <t>When OPCODE = 14 or 15. output stays the same and valid_out = 0.</t>
   </si>
   <si>
-    <t>Covering ctl values that aren't of the opcodes.</t>
+    <t>Covering ctl values that aren't opcodes.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +586,7 @@
   <dimension ref="A1:E968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7548,5 +7547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ALU_Verf_Plan.xlsx
+++ b/ALU_Verf_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation Project\Siemens\ALU_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E380B2-52A1-41DC-8028-8AB5CFAB121A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D2089-04F6-46C9-AA65-00922222EF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A1:E968"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ALU_Verf_Plan.xlsx
+++ b/ALU_Verf_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation Project\Siemens\ALU_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799D2089-04F6-46C9-AA65-00922222EF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A89750-C171-4A28-9368-EBCA2F20EAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>A checker in the testbench to make sure the output is correct</t>
-  </si>
-  <si>
-    <t>Randomization under constraints on the input B most of the time to have one bit high in its 3 bits while constraining the A to be low.</t>
   </si>
   <si>
     <t>CROSS 1</t>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Covering ctl values that aren't opcodes.</t>
+  </si>
+  <si>
+    <t>Randomization.</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
   </sheetPr>
   <dimension ref="A1:E968"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -618,13 +618,13 @@
     </row>
     <row r="2" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
@@ -635,16 +635,16 @@
     </row>
     <row r="3" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -652,16 +652,16 @@
     </row>
     <row r="4" spans="1:5" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -669,16 +669,16 @@
     </row>
     <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>6</v>
@@ -686,16 +686,16 @@
     </row>
     <row r="6" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="7" spans="1:5" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>6</v>
@@ -720,13 +720,13 @@
     </row>
     <row r="8" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
@@ -737,16 +737,16 @@
     </row>
     <row r="9" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="10" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -771,16 +771,16 @@
     </row>
     <row r="11" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>6</v>
@@ -788,104 +788,104 @@
     </row>
     <row r="12" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="C17" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
